--- a/Data/Transitions/19391966Translation.xlsx
+++ b/Data/Transitions/19391966Translation.xlsx
@@ -28,7 +28,7 @@
     <t>{1.0: 1.0, 886.0: 0.0010655856774592443}</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7512315030382182e-06}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7174174533209238e-06}</t>
   </si>
   <si>
     <t>{5.0: 0.9810626254491548, 403.0: 0.006689567890074128}</t>
@@ -76,7 +76,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -97,7 +97,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -106,7 +106,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -160,10 +160,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.985751361164705}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9857571080201947}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541}</t>
@@ -175,7 +175,7 @@
     <t>{84.0: 0.6814142894857135}</t>
   </si>
   <si>
-    <t>{85.0: 0.9895784953063307, 178.0: 0.008695627667129929, 492.0: 0.003418852880658436, 97.0: 1.3219344149476795e-05, 696.0: 3.4452665911908995e-06}</t>
+    <t>{85.0: 0.9895402914516633, 178.0: 0.008741692524372261, 492.0: 0.003418852880658436, 97.0: 1.317900243106368e-05, 696.0: 3.34744081004416e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -187,13 +187,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -205,7 +205,7 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
+    <t>{97.0: 0.9723237186088487}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -229,10 +229,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.5983649330318316}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.40163506696816836, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -253,13 +253,13 @@
     <t>{142.0: 0.9962324013484037}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9978703221696027, 743.0: 0.0029220468706393416, 544.0: 2.5343881103012855e-06, 975.0: 0.0051123267978852175, 942.0: 0.031323247389729386, 152.0: 0.000366016192556977}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9978703221696027, 743.0: 0.0029298788622231006, 544.0: 2.5343881103012855e-06, 975.0: 0.0051123267978852175, 942.0: 0.031323247389729386, 152.0: 0.0003660192689772492}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -277,7 +277,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
+    <t>{152.0: 0.9280286630608138}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851}</t>
@@ -307,10 +307,10 @@
     <t>{171.0: 0.934845750020056}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013738694929124806}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
+    <t>{172.0: 1.0, 81.0: 0.013738775024671702}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
   </si>
   <si>
     <t>{174.0: 1.0}</t>
@@ -325,13 +325,13 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
@@ -343,19 +343,19 @@
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
+    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
   </si>
   <si>
     <t>{202.0: 0.2984619464333068, 307.0: 0.9844963966062609}</t>
   </si>
   <si>
-    <t>{203.0: 0.9011118598382749}</t>
+    <t>{203.0: 0.9116096973347387}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -373,16 +373,16 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -403,10 +403,10 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
   </si>
   <si>
     <t>{222.0: 1.0}</t>
@@ -415,7 +415,7 @@
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -424,7 +424,7 @@
     <t>{226.0: 0.7384353461125667, 216.0: 0.033211370672670985}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -445,7 +445,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -454,7 +454,7 @@
     <t>{237.0: 0.9952565761103924}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -466,7 +466,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -475,10 +475,10 @@
     <t>{244.0: 1.0, 565.0: 0.007684666063101304}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,7 +499,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,7 +523,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -532,13 +532,13 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 0.004743423889607589}</t>
@@ -580,10 +580,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026298366265383358, 142.0: 1.797534470597053e-05}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026172626732387502, 142.0: 1.797534470597053e-05}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -646,7 +646,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -667,7 +667,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -676,22 +676,22 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 141.0: 0.001462755443927208}</t>
+    <t>{402.0: 0.9631027328570206, 141.0: 0.001462755443927208}</t>
   </si>
   <si>
     <t>{403.0: 0.9933104321099259}</t>
   </si>
   <si>
-    <t>{404.0: 0.3602408039990831, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.5153463240358885, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -709,7 +709,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6378625352732888, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4827190998121594, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -733,13 +733,13 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 0.9970319608416004}</t>
@@ -754,10 +754,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -778,7 +778,7 @@
     <t>{434.0: 1.0, 585.0: 0.2521276595744681}</t>
   </si>
   <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06}</t>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -805,7 +805,7 @@
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 1.0, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{477.0: 0.08715749135305137}</t>
@@ -814,7 +814,7 @@
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -847,13 +847,13 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -904,7 +904,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -913,7 +913,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -925,10 +925,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -961,7 +961,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -979,7 +979,7 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
+    <t>{573.0: 0.5470310513891411}</t>
   </si>
   <si>
     <t>{580.0: 0.9374294316898758, 728.0: 0.002418704649287826}</t>
@@ -991,7 +991,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1009,7 +1009,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1018,16 +1018,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005397362490856421, 178.0: 4.742772284122022e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.879118509395074e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 1.0, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.0053971541192586485, 178.0: 4.767896994673605e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.8257623376204746e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 1.0, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1060,7 +1060,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1117,10 +1117,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1141,19 +1141,19 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9963087013294778, 481.0: 0.018463733544381404}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007039869053910691}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
@@ -1195,16 +1195,16 @@
     <t>{695.0: 0.9904820191724878}</t>
   </si>
   <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1213,7 +1213,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1258,13 +1258,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1348,13 +1348,13 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2372956890280223e-06, 184.0: 0.006191381503173426}</t>
+    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2323045809641737e-06, 184.0: 0.006191381503173426}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 435.0: 0.0032377428307123032}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 435.0: 0.0032377428307123032}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1372,10 +1372,10 @@
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.053999443459568e-06}</t>
   </si>
   <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 1.0, 681.0: 0.07824284302484964, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094330323799761}</t>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 1.0, 681.0: 0.07823603868974756, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094350250747332}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1387,7 +1387,7 @@
     <t>{833.0: 0.9992826398852224, 17.0: 0.015223021717511548, 918.0: 0.0009153035400826402}</t>
   </si>
   <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
   </si>
   <si>
     <t>{835.0: 1.0, 756.0: 0.012552301255230125, 836.0: 0.0061525840853158325}</t>
@@ -1414,7 +1414,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1426,13 +1426,13 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
@@ -1456,7 +1456,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1465,7 +1465,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1486,7 +1486,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1504,10 +1504,10 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0, 499.0: 0.04679351656095842}</t>
@@ -1516,16 +1516,16 @@
     <t>{906.0: 0.9929245283018868, 477.0: 0.002429928354099725}</t>
   </si>
   <si>
-    <t>{788.0: 0.5007363616604456}</t>
+    <t>{788.0: 0.49850949482794676}</t>
   </si>
   <si>
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1594,10 +1594,10 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1606,13 +1606,13 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 152.0: 0.00043336244194414986}</t>
+    <t>{971.0: 0.9959752321981424, 152.0: 0.00042499476517949327}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1624,7 +1624,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9941776158300827, 152.0: 0.07117800722589049}</t>
+    <t>{975.0: 0.9941776158300827, 152.0: 0.07117860548757622}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1651,13 +1651,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3771760347955267}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27784056424541764}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4333451572549258}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22167144178601855}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493103, 886.0: 0.006416426050689767}</t>
@@ -1726,7 +1726,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1825,10 +1825,10 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.0065680205345009825}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.4623405296443513, 850.0: 0.00020695636958117784}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.0065680205345009825}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00020654019725647354}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069353, 850.0: 0.0004474272930648772}</t>
@@ -1897,7 +1897,7 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1936,7 +1936,7 @@
     <t>{271.0: 0.9988083631242551, 237.0: 0.001191636875744773}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328585, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937944, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1999,7 +1999,7 @@
     <t>{404.0: 0.7774172615184943, 907.0: 0.2225827384815055}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484792, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881434, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150556}</t>
@@ -2065,7 +2065,7 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720767471169998, 97.0: 0.011519836235458271, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{492.0: 0.9720767471169989, 97.0: 0.011519836235458271, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2173,7 +2173,7 @@
     <t>{593.0: 0.9966347398395027, 171.0: 0.0033652601604970216}</t>
   </si>
   <si>
-    <t>{593.0: 0.9932388512887629, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795209e-05, 492.0: 3.031445419210871e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
+    <t>{593.0: 0.9932388512887629, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795209e-05, 492.0: 3.0314454192108702e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774042}</t>
@@ -2275,7 +2275,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2344,7 +2344,7 @@
     <t>{781.0: 0.9989279297523234, 81.0: 0.0003496014686487367, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611937, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2476,13 +2476,13 @@
     <t>{937.0: 0.994910941475827, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
-    <t>{940.0: 0.9864997747918501, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9864997747918501, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.7700641420657479, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
